--- a/results/tbl1.xlsx
+++ b/results/tbl1.xlsx
@@ -449,25 +449,25 @@
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>9875.9249999999993</v>
+        <v>9872.3340000000007</v>
       </c>
       <c r="C2" s="2">
-        <v>7807.8785298042285</v>
+        <v>7804.4854978904732</v>
       </c>
       <c r="D2" s="17">
-        <v>0.79059718758538866</v>
+        <v>0.7905410714315857</v>
       </c>
       <c r="E2" s="3">
-        <v>1395.7205934441836</v>
+        <v>1395.6962391961365</v>
       </c>
       <c r="F2" s="18">
-        <v>0.14132555618275591</v>
+        <v>0.1413744955545605</v>
       </c>
       <c r="G2" s="4">
-        <v>672.32590037445357</v>
+        <v>672.15228637769076</v>
       </c>
       <c r="H2" s="19">
-        <v>0.068077258623820414</v>
+        <v>0.068084435390627043</v>
       </c>
     </row>
     <row r="3">
@@ -475,25 +475,25 @@
         <v>5</v>
       </c>
       <c r="B3" s="5">
-        <v>1003.4629999999999</v>
+        <v>1003.4630000000001</v>
       </c>
       <c r="C3" s="6">
         <v>205.83887899780274</v>
       </c>
       <c r="D3" s="20">
-        <v>0.2051285189367249</v>
+        <v>0.20512851893672485</v>
       </c>
       <c r="E3" s="7">
         <v>729.84044078445436</v>
       </c>
       <c r="F3" s="21">
-        <v>0.72732172564853359</v>
+        <v>0.72732172564853348</v>
       </c>
       <c r="G3" s="8">
         <v>67.78367863464355</v>
       </c>
       <c r="H3" s="22">
-        <v>0.067549753837105667</v>
+        <v>0.067549753837105653</v>
       </c>
     </row>
     <row r="4">
@@ -501,16 +501,16 @@
         <v>6</v>
       </c>
       <c r="B4" s="10">
-        <v>0.10160698871244971</v>
+        <v>0.1016439476217073</v>
       </c>
       <c r="C4" s="12">
-        <v>0.026362971479650294</v>
+        <v>0.026374432889066206</v>
       </c>
       <c r="E4" s="14">
-        <v>0.52291299864211793</v>
+        <v>0.52292212322991738</v>
       </c>
       <c r="G4" s="16">
-        <v>0.10081967479892008</v>
+        <v>0.10084571608011321</v>
       </c>
     </row>
   </sheetData>
